--- a/planejamento/sprint-1-criterios-web.xlsx
+++ b/planejamento/sprint-1-criterios-web.xlsx
@@ -11,8 +11,8 @@
     <sheet name="bd-1-t" sheetId="2" r:id="rId2"/>
     <sheet name="backend-2-m" sheetId="3" r:id="rId3"/>
     <sheet name="backend-2-t" sheetId="4" r:id="rId4"/>
-    <sheet name="web-react-3-m" sheetId="5" r:id="rId5"/>
-    <sheet name="web-react-3-t" sheetId="6" r:id="rId6"/>
+    <sheet name="web-react-4-m" sheetId="5" r:id="rId5"/>
+    <sheet name="web-react-4-t" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -490,7 +490,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +500,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -605,6 +611,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -8253,7 +8260,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8852,7 +8859,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8944,7 +8951,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="4"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="4"/>
+      <c r="P2" s="23"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="4"/>
       <c r="S2" s="9"/>
@@ -8955,23 +8962,35 @@
       <c r="A3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="4">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="9"/>
       <c r="F3" s="4"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
       <c r="I3" s="9"/>
       <c r="J3" s="4"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
       <c r="M3" s="9"/>
       <c r="N3" s="4"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="P3" s="23">
+        <v>10</v>
+      </c>
       <c r="Q3" s="9"/>
-      <c r="R3" s="4"/>
+      <c r="R3" s="4">
+        <v>10</v>
+      </c>
       <c r="S3" s="9"/>
       <c r="T3" s="4"/>
       <c r="U3" s="9"/>
@@ -8980,23 +8999,35 @@
       <c r="A4" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="9"/>
       <c r="F4" s="4"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="4"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
       <c r="M4" s="9"/>
       <c r="N4" s="4"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+      <c r="P4" s="23">
+        <v>10</v>
+      </c>
       <c r="Q4" s="9"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="4">
+        <v>10</v>
+      </c>
       <c r="S4" s="9"/>
       <c r="T4" s="4"/>
       <c r="U4" s="9"/>
@@ -9019,7 +9050,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="4"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="P5" s="23"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="4"/>
       <c r="S5" s="9"/>
@@ -9030,23 +9061,35 @@
       <c r="A6" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9"/>
       <c r="F6" s="4"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="4"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
       <c r="M6" s="9"/>
       <c r="N6" s="4"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="P6" s="23">
+        <v>10</v>
+      </c>
       <c r="Q6" s="9"/>
-      <c r="R6" s="4"/>
+      <c r="R6" s="4">
+        <v>10</v>
+      </c>
       <c r="S6" s="9"/>
       <c r="T6" s="4"/>
       <c r="U6" s="9"/>
@@ -9055,23 +9098,35 @@
       <c r="A7" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="9"/>
       <c r="F7" s="4"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="4"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="4"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="P7" s="23">
+        <v>0</v>
+      </c>
       <c r="Q7" s="9"/>
-      <c r="R7" s="4"/>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
       <c r="S7" s="9"/>
       <c r="T7" s="4"/>
       <c r="U7" s="9"/>
@@ -9080,23 +9135,35 @@
       <c r="A8" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="9"/>
       <c r="F8" s="4"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>10</v>
+      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="4"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
       <c r="M8" s="9"/>
       <c r="N8" s="4"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="P8" s="23">
+        <v>10</v>
+      </c>
       <c r="Q8" s="9"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="4">
+        <v>10</v>
+      </c>
       <c r="S8" s="9"/>
       <c r="T8" s="4"/>
       <c r="U8" s="9"/>
@@ -9119,7 +9186,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="4"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="P9" s="23"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="4"/>
       <c r="S9" s="9"/>
@@ -9130,23 +9197,35 @@
       <c r="A10" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="9"/>
       <c r="F10" s="4"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="4"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
       <c r="M10" s="9"/>
       <c r="N10" s="4"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="P10" s="23">
+        <v>10</v>
+      </c>
       <c r="Q10" s="9"/>
-      <c r="R10" s="4"/>
+      <c r="R10" s="4">
+        <v>10</v>
+      </c>
       <c r="S10" s="9"/>
       <c r="T10" s="4"/>
       <c r="U10" s="9"/>
@@ -9155,23 +9234,35 @@
       <c r="A11" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="9"/>
       <c r="F11" s="4"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <v>10</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="4"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
       <c r="M11" s="9"/>
       <c r="N11" s="4"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="P11" s="23">
+        <v>10</v>
+      </c>
       <c r="Q11" s="9"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="4">
+        <v>10</v>
+      </c>
       <c r="S11" s="9"/>
       <c r="T11" s="4"/>
       <c r="U11" s="9"/>
@@ -9180,23 +9271,35 @@
       <c r="A12" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="9"/>
       <c r="F12" s="4"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>10</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="4"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
       <c r="M12" s="9"/>
       <c r="N12" s="4"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
+      <c r="P12" s="23">
+        <v>10</v>
+      </c>
       <c r="Q12" s="9"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="4">
+        <v>10</v>
+      </c>
       <c r="S12" s="9"/>
       <c r="T12" s="4"/>
       <c r="U12" s="9"/>
@@ -9219,7 +9322,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="4"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
+      <c r="P13" s="23"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="4"/>
       <c r="S13" s="9"/>
@@ -9230,23 +9333,35 @@
       <c r="A14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="9"/>
       <c r="F14" s="4"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4">
+        <v>10</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="4"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
       <c r="M14" s="9"/>
       <c r="N14" s="4"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
+      <c r="P14" s="23">
+        <v>10</v>
+      </c>
       <c r="Q14" s="9"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="4">
+        <v>10</v>
+      </c>
       <c r="S14" s="9"/>
       <c r="T14" s="4"/>
       <c r="U14" s="9"/>
@@ -9255,23 +9370,35 @@
       <c r="A15" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="9"/>
       <c r="F15" s="4"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="4"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
       <c r="M15" s="9"/>
       <c r="N15" s="4"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="P15" s="23">
+        <v>0</v>
+      </c>
       <c r="Q15" s="9"/>
-      <c r="R15" s="4"/>
+      <c r="R15" s="4">
+        <v>10</v>
+      </c>
       <c r="S15" s="9"/>
       <c r="T15" s="4"/>
       <c r="U15" s="9"/>
@@ -9280,23 +9407,35 @@
       <c r="A16" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="9"/>
       <c r="F16" s="4"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4">
+        <v>10</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="4"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
       <c r="M16" s="9"/>
       <c r="N16" s="4"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
+      <c r="P16" s="23">
+        <v>10</v>
+      </c>
       <c r="Q16" s="9"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="4">
+        <v>10</v>
+      </c>
       <c r="S16" s="9"/>
       <c r="T16" s="4"/>
       <c r="U16" s="9"/>
